--- a/Dr.Boyd/CleanedCalcium.xlsx
+++ b/Dr.Boyd/CleanedCalcium.xlsx
@@ -1,27 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/Dr.Boyd/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_B42DBDD28F79A8B36A3704F0FB5CC2334027EB5C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Obs.</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>AlkPhos</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>CamMOL</t>
+  </si>
+  <si>
+    <t>PhosMOL</t>
+  </si>
+  <si>
+    <t>AgeGroup</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,14 +107,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -138,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,27 +185,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,24 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,42 +394,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -467,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="G2">
         <v>1.07</v>
@@ -476,7 +453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -496,13 +473,13 @@
         <v>2.5</v>
       </c>
       <c r="G3">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -519,16 +496,16 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="G4">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -548,13 +525,13 @@
         <v>2.48</v>
       </c>
       <c r="G5">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -574,13 +551,13 @@
         <v>2.33</v>
       </c>
       <c r="G6">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -606,7 +583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -623,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="G8">
         <v>1.26</v>
@@ -632,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -649,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="F9">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="G9">
         <v>1.23</v>
@@ -658,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -684,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -701,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="G11">
         <v>0.84</v>
@@ -710,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -730,13 +707,13 @@
         <v>2.4</v>
       </c>
       <c r="G12">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -756,13 +733,13 @@
         <v>2.25</v>
       </c>
       <c r="G13">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -779,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="G14">
         <v>1.49</v>
@@ -788,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -805,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="G15">
         <v>1.23</v>
@@ -814,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -840,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -857,16 +834,16 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G17">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -892,7 +869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -909,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G19">
         <v>1.07</v>
@@ -918,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -938,13 +915,13 @@
         <v>2.38</v>
       </c>
       <c r="G20">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -964,13 +941,13 @@
         <v>2.63</v>
       </c>
       <c r="G21">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
@@ -987,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="F22">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G22">
         <v>0.9</v>
@@ -996,7 +973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1013,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="G23">
         <v>0.84</v>
@@ -1022,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1048,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1065,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G25">
         <v>1.36</v>
@@ -1074,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1091,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="G26">
         <v>1.07</v>
@@ -1100,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1126,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1146,13 +1123,13 @@
         <v>2.23</v>
       </c>
       <c r="G28">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1169,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="F29">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="G29">
         <v>1.42</v>
@@ -1178,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1204,7 +1181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1224,13 +1201,13 @@
         <v>2.33</v>
       </c>
       <c r="G31">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1250,13 +1227,13 @@
         <v>2.4</v>
       </c>
       <c r="G32">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1282,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1308,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1334,7 +1311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1354,13 +1331,13 @@
         <v>2.25</v>
       </c>
       <c r="G36">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1377,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="F37">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="G37">
         <v>0.84</v>
@@ -1386,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1412,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1432,13 +1409,13 @@
         <v>2.33</v>
       </c>
       <c r="G39">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1455,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="G40">
         <v>1.29</v>
@@ -1464,7 +1441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1490,7 +1467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1516,7 +1493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1533,13 +1510,13 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1565,7 +1542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1582,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="G45">
         <v>1.07</v>
@@ -1591,7 +1568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1617,7 +1594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1643,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1669,7 +1646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1695,7 +1672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1712,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="G50">
         <v>1.26</v>
@@ -1721,7 +1698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1747,7 +1724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1773,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1793,13 +1770,13 @@
         <v>2.48</v>
       </c>
       <c r="G53">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1816,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="F54">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="G54">
         <v>1.19</v>
@@ -1825,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1842,16 +1819,16 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="G55">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1877,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1894,16 +1871,16 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="G57">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1929,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1946,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="G59">
         <v>1.19</v>
@@ -1955,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1981,7 +1958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2007,7 +1984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2033,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2059,7 +2036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2085,7 +2062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2111,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2131,13 +2108,13 @@
         <v>2.58</v>
       </c>
       <c r="G66">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2163,7 +2140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2180,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="F68">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="G68">
         <v>1.23</v>
@@ -2189,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2215,7 +2192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2241,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2267,7 +2244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2293,7 +2270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2313,13 +2290,13 @@
         <v>2.35</v>
       </c>
       <c r="G73">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2336,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="G74">
         <v>1.42</v>
@@ -2345,7 +2322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2362,16 +2339,16 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="G75">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2388,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="G76">
         <v>1.26</v>
@@ -2397,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2417,13 +2394,13 @@
         <v>2.33</v>
       </c>
       <c r="G77">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2440,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="F78">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="G78">
         <v>0.97</v>
@@ -2449,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2475,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2501,7 +2478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2518,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="G81">
         <v>1.23</v>
@@ -2527,7 +2504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2553,7 +2530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2579,7 +2556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2605,7 +2582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2622,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G85">
         <v>1.23</v>
@@ -2631,7 +2608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2654,7 +2631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2680,7 +2657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2697,16 +2674,16 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G88">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2732,7 +2709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2752,13 +2729,13 @@
         <v>2.35</v>
       </c>
       <c r="G90">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2784,7 +2761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2810,7 +2787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2827,16 +2804,16 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G93">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2853,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="G94">
         <v>1.58</v>
@@ -2862,7 +2839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2882,13 +2859,13 @@
         <v>2.25</v>
       </c>
       <c r="G95">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2914,7 +2891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2940,7 +2917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2957,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G98">
         <v>1.32</v>
@@ -2966,7 +2943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2983,16 +2960,16 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G99">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3018,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3044,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3061,16 +3038,16 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G102">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3087,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="G103">
         <v>1.07</v>
@@ -3096,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3113,16 +3090,16 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G104">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3148,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3171,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3188,16 +3165,16 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="G107">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3214,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G108">
         <v>1.19</v>
@@ -3223,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3249,7 +3226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3275,7 +3252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3301,7 +3278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3318,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="G112">
         <v>0.97</v>
@@ -3327,7 +3304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3344,16 +3321,16 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G113">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H113">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3379,7 +3356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3396,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="F115">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -3405,7 +3382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3431,7 +3408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3448,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -3457,7 +3434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3477,13 +3454,13 @@
         <v>2.48</v>
       </c>
       <c r="G118">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H118">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3500,16 +3477,16 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="G119">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3529,13 +3506,13 @@
         <v>2.1</v>
       </c>
       <c r="G120">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H120">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3561,7 +3538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3578,16 +3555,16 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="G122">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H122">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3604,16 +3581,16 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="G123">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H123">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3639,7 +3616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3656,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G125">
         <v>0.77</v>
@@ -3665,7 +3642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3685,13 +3662,13 @@
         <v>2.25</v>
       </c>
       <c r="G126">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3717,7 +3694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3734,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="G128">
         <v>0.84</v>
@@ -3743,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3760,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G129">
         <v>0.87</v>
@@ -3769,7 +3746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3795,7 +3772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3821,7 +3798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3847,7 +3824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3873,7 +3850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3899,7 +3876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3925,7 +3902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3951,7 +3928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3977,7 +3954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3994,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -4003,7 +3980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4029,7 +4006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4046,16 +4023,16 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="G140">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4081,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4107,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4133,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4150,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G144">
         <v>1.32</v>
@@ -4159,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4185,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4211,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4237,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4263,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4289,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4306,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="G150">
         <v>1.19</v>
@@ -4315,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4341,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4358,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G152">
         <v>0.97</v>
@@ -4367,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4393,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4410,16 +4387,16 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G154">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4436,16 +4413,16 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="G155">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4471,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4497,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4523,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4540,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="G159">
         <v>1.32</v>
@@ -4549,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4566,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="G160">
         <v>0.97</v>
@@ -4575,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4601,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4627,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4644,16 +4621,16 @@
         <v>1</v>
       </c>
       <c r="F163">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="G163">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4673,13 +4650,13 @@
         <v>2.1</v>
       </c>
       <c r="G164">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4696,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -4705,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4731,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4748,16 +4725,16 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="G167">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4777,13 +4754,13 @@
         <v>2.35</v>
       </c>
       <c r="G168">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H168">
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4803,13 +4780,13 @@
         <v>2.23</v>
       </c>
       <c r="G169">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H169">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4835,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4849,7 +4826,7 @@
         <v>89</v>
       </c>
       <c r="F171">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G171">
         <v>1.36</v>
@@ -4858,7 +4835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4884,7 +4861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4910,7 +4887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4927,7 +4904,7 @@
         <v>3</v>
       </c>
       <c r="F174">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G174">
         <v>1.19</v>
@@ -4936,7 +4913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4953,7 +4930,7 @@
         <v>3</v>
       </c>
       <c r="F175">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="G175">
         <v>1.07</v>
@@ -4962,7 +4939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4979,16 +4956,16 @@
         <v>3</v>
       </c>
       <c r="F176">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="G176">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H176">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5005,7 +4982,7 @@
         <v>6</v>
       </c>
       <c r="F177">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G177">
         <v>1.26</v>
@@ -5014,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5040,7 +5017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>178</v>
       </c>

--- a/Dr.Boyd/CleanedCalcium.xlsx
+++ b/Dr.Boyd/CleanedCalcium.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/Dr.Boyd/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{FA64C256-3549-41C6-B7FA-B1530BD28AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +113,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +199,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +251,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G2">
         <v>1.07</v>
@@ -453,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -473,13 +523,13 @@
         <v>2.5</v>
       </c>
       <c r="G3">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -496,16 +546,16 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G4">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -525,13 +575,13 @@
         <v>2.48</v>
       </c>
       <c r="G5">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -551,13 +601,13 @@
         <v>2.33</v>
       </c>
       <c r="G6">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -583,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -600,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G8">
         <v>1.26</v>
@@ -609,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -626,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="F9">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G9">
         <v>1.23</v>
@@ -635,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -661,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -678,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G11">
         <v>0.84</v>
@@ -687,7 +737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -707,13 +757,13 @@
         <v>2.4</v>
       </c>
       <c r="G12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -733,13 +783,13 @@
         <v>2.25</v>
       </c>
       <c r="G13">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -756,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G14">
         <v>1.49</v>
@@ -765,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -782,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G15">
         <v>1.23</v>
@@ -791,7 +841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -817,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -834,16 +884,16 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G17">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -869,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -886,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G19">
         <v>1.07</v>
@@ -895,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -915,13 +965,13 @@
         <v>2.38</v>
       </c>
       <c r="G20">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -941,13 +991,13 @@
         <v>2.63</v>
       </c>
       <c r="G21">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -964,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="F22">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G22">
         <v>0.9</v>
@@ -973,7 +1023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -990,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G23">
         <v>0.84</v>
@@ -999,7 +1049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1025,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1042,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G25">
         <v>1.36</v>
@@ -1051,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1068,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G26">
         <v>1.07</v>
@@ -1077,7 +1127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1103,7 +1153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1123,13 +1173,13 @@
         <v>2.23</v>
       </c>
       <c r="G28">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1146,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="F29">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G29">
         <v>1.42</v>
@@ -1155,7 +1205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1181,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1201,13 +1251,13 @@
         <v>2.33</v>
       </c>
       <c r="G31">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1227,13 +1277,13 @@
         <v>2.4</v>
       </c>
       <c r="G32">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1259,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1285,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1311,7 +1361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1331,13 +1381,13 @@
         <v>2.25</v>
       </c>
       <c r="G36">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1354,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="F37">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G37">
         <v>0.84</v>
@@ -1363,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1389,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1409,13 +1459,13 @@
         <v>2.33</v>
       </c>
       <c r="G39">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="H39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1432,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G40">
         <v>1.29</v>
@@ -1441,7 +1491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1467,7 +1517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1493,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1510,13 +1560,13 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1542,7 +1592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1559,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G45">
         <v>1.07</v>
@@ -1568,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1594,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1620,7 +1670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1646,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1672,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1689,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G50">
         <v>1.26</v>
@@ -1698,7 +1748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1724,7 +1774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1750,7 +1800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1770,13 +1820,13 @@
         <v>2.48</v>
       </c>
       <c r="G53">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1793,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="F54">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G54">
         <v>1.19</v>
@@ -1802,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1819,16 +1869,16 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G55">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1854,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1871,16 +1921,16 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G57">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1906,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1923,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G59">
         <v>1.19</v>
@@ -1932,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1958,7 +2008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1984,7 +2034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2010,7 +2060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2036,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2062,7 +2112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2088,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2108,13 +2158,13 @@
         <v>2.58</v>
       </c>
       <c r="G66">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2140,7 +2190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2157,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="F68">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G68">
         <v>1.23</v>
@@ -2166,7 +2216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2192,7 +2242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2218,7 +2268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2244,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2270,7 +2320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2290,13 +2340,13 @@
         <v>2.35</v>
       </c>
       <c r="G73">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2313,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G74">
         <v>1.42</v>
@@ -2322,7 +2372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2339,16 +2389,16 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G75">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2365,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G76">
         <v>1.26</v>
@@ -2374,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2394,13 +2444,13 @@
         <v>2.33</v>
       </c>
       <c r="G77">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2417,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="F78">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G78">
         <v>0.97</v>
@@ -2426,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2452,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2478,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2495,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G81">
         <v>1.23</v>
@@ -2504,7 +2554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2530,7 +2580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2556,7 +2606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2582,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2599,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G85">
         <v>1.23</v>
@@ -2608,7 +2658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2631,7 +2681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2657,7 +2707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2674,16 +2724,16 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G88">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2709,7 +2759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2729,13 +2779,13 @@
         <v>2.35</v>
       </c>
       <c r="G90">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2761,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2787,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2804,16 +2854,16 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G93">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2830,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G94">
         <v>1.58</v>
@@ -2839,7 +2889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2859,13 +2909,13 @@
         <v>2.25</v>
       </c>
       <c r="G95">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2891,7 +2941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2917,7 +2967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2934,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G98">
         <v>1.32</v>
@@ -2943,7 +2993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2960,16 +3010,16 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G99">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2995,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3021,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3038,16 +3088,16 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G102">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3064,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G103">
         <v>1.07</v>
@@ -3073,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3090,16 +3140,16 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G104">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3125,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3148,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3165,16 +3215,16 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G107">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3191,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G108">
         <v>1.19</v>
@@ -3200,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3226,7 +3276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3252,7 +3302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3278,7 +3328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3295,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G112">
         <v>0.97</v>
@@ -3304,7 +3354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3321,16 +3371,16 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G113">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H113">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3356,7 +3406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3373,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="F115">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -3382,7 +3432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3408,7 +3458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3425,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -3434,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3454,13 +3504,13 @@
         <v>2.48</v>
       </c>
       <c r="G118">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H118">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3477,16 +3527,16 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G119">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3506,13 +3556,13 @@
         <v>2.1</v>
       </c>
       <c r="G120">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H120">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3538,7 +3588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3555,16 +3605,16 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G122">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H122">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3581,16 +3631,16 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G123">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H123">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3616,7 +3666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3633,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G125">
         <v>0.77</v>
@@ -3642,7 +3692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3662,13 +3712,13 @@
         <v>2.25</v>
       </c>
       <c r="G126">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3694,7 +3744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3711,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G128">
         <v>0.84</v>
@@ -3720,7 +3770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3737,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G129">
         <v>0.87</v>
@@ -3746,7 +3796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3772,7 +3822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3798,7 +3848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3824,7 +3874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3850,7 +3900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3876,7 +3926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3902,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3928,7 +3978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3954,7 +4004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3971,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -3980,7 +4030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4006,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4023,16 +4073,16 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G140">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4058,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4084,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4110,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4127,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G144">
         <v>1.32</v>
@@ -4136,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4162,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4188,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4214,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4240,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4266,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4283,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G150">
         <v>1.19</v>
@@ -4292,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4318,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4335,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G152">
         <v>0.97</v>
@@ -4344,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4370,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4387,16 +4437,16 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G154">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4413,16 +4463,16 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G155">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4448,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4474,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4500,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4517,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G159">
         <v>1.32</v>
@@ -4526,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4543,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G160">
         <v>0.97</v>
@@ -4552,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4578,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4604,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4621,16 +4671,16 @@
         <v>1</v>
       </c>
       <c r="F163">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G163">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4650,13 +4700,13 @@
         <v>2.1</v>
       </c>
       <c r="G164">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4673,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -4682,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4708,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4725,16 +4775,16 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G167">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4754,13 +4804,13 @@
         <v>2.35</v>
       </c>
       <c r="G168">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H168">
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4780,13 +4830,13 @@
         <v>2.23</v>
       </c>
       <c r="G169">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H169">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4812,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4826,7 +4876,7 @@
         <v>89</v>
       </c>
       <c r="F171">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G171">
         <v>1.36</v>
@@ -4835,7 +4885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4861,7 +4911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4887,7 +4937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4904,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="F174">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G174">
         <v>1.19</v>
@@ -4913,7 +4963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4930,7 +4980,7 @@
         <v>3</v>
       </c>
       <c r="F175">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G175">
         <v>1.07</v>
@@ -4939,7 +4989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4956,16 +5006,16 @@
         <v>3</v>
       </c>
       <c r="F176">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G176">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H176">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4982,7 +5032,7 @@
         <v>6</v>
       </c>
       <c r="F177">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G177">
         <v>1.26</v>
@@ -4991,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5017,7 +5067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
